--- a/origin_data/label/type5_2.xlsx
+++ b/origin_data/label/type5_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20610" windowHeight="10545"/>
+    <workbookView windowWidth="18960" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,39 +33,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,6 +107,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -85,16 +122,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,21 +154,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,51 +169,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -192,49 +192,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,133 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +383,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,30 +436,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,36 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -483,153 +468,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,22 +995,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -1019,16 +1019,16 @@
         <v>2</v>
       </c>
       <c r="I1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J1">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1039,60 +1039,60 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1109,34 +1109,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -1147,22 +1147,22 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1177,24 +1177,24 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1222,7 +1222,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1239,7 +1239,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -1256,7 +1256,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
